--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.543</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.25</v>
+        <v>17.302</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.747</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.457</v>
+        <v>13.909</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.283</v>
+        <v>1.464</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.979069210260004</v>
+        <v>9.193717399659004</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.61243849956226</v>
+        <v>13.75015110987545</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.62020267294346</v>
+        <v>21.73570301060372</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.525810031222967</v>
+        <v>2.554600413465788</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.63149797277949</v>
+        <v>14.70216511141822</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.01476364436014</v>
+        <v>16.38068201047152</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.077910383053499</v>
+        <v>5.679283354201129</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.06853392071417</v>
+        <v>27.88190310615033</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.85240170072662</v>
+        <v>30.22656131741346</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.1867668049105</v>
+        <v>15.28532640317275</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.50421048605713</v>
+        <v>18.75386539646665</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.8523909232679</v>
+        <v>19.77594497918568</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.15247195337275</v>
+        <v>13.5266418227082</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.24878686666291</v>
+        <v>14.13099218164612</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.28083040811412</v>
+        <v>28.2519397021175</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.372219181657126</v>
+        <v>9.527760807041286</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.72632746704289</v>
+        <v>24.78734729905738</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.91548450469885</v>
+        <v>28.97268637707433</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.3481139002164788</v>
+        <v>0.8743031869565385</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.046183736505352</v>
+        <v>9.886872938877758</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.0156732015257</v>
+        <v>15.48944956776495</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.056968065083637</v>
+        <v>2.928924420224671</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.58519890081288</v>
+        <v>25.35748260469922</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.923347103429702</v>
+        <v>11.55781811946338</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.43307563386338</v>
+        <v>21.02499888169758</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.50686695113645</v>
+        <v>23.07719566062335</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9743072192224602</v>
+        <v>2.092643242600079</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.37914558699898</v>
+        <v>24.71975693694552</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.98829176327741</v>
+        <v>26.2002952988526</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.110793585953537</v>
+        <v>5.118711813120065</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.38728944073301</v>
+        <v>36.90616987256139</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.73133249430423</v>
+        <v>37.32103781503502</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.11154836040151</v>
+        <v>36.48292454674215</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.49633272199505</v>
+        <v>42.1268910257367</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.80741657247937</v>
+        <v>41.50446392014572</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.74231161502275</v>
+        <v>17.04750547720777</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.25443109694456</v>
+        <v>38.58913982826398</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.57484181048553</v>
+        <v>41.46984532035182</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.27140660228861</v>
+        <v>16.73126365046649</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.51205792817503</v>
+        <v>31.05594156787211</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.89117372269024</v>
+        <v>33.8376907610268</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.8177613036256268</v>
+        <v>1.87023282278804</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.16783717636974</v>
+        <v>29.93957247439846</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.06643784261213</v>
+        <v>33.84422908955261</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.383313803269992</v>
+        <v>3.379280289440239</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.51938833440161</v>
+        <v>48.8458353006427</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.86390659270559</v>
+        <v>4.704451009636642</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13.1320627444567</v>
+        <v>14.81410025212073</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.81190423423799</v>
+        <v>23.4590507620745</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.6995462539490021</v>
+        <v>1.660571241805648</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.33511692344139</v>
+        <v>23.6520515449239</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.71919172105532</v>
+        <v>25.74646106200935</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6.250845003952023</v>
+        <v>7.255512636741429</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.92831220526719</v>
+        <v>37.14552790385241</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.74756421603882</v>
+        <v>41.5933699052359</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.87350970460224</v>
+        <v>40.17299185202747</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.28323153293886</v>
+        <v>43.63752676028088</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>49.30220039908716</v>
+        <v>49.83863414273819</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.599989342312394</v>
+        <v>5.182334846973841</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.86781839000309</v>
+        <v>26.94670404324342</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.05945574605355</v>
+        <v>32.51749994844923</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9.581280045833392</v>
+        <v>9.944905051734601</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.85842075498115</v>
+        <v>29.74135041991137</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.59721789469845</v>
+        <v>33.27391580773569</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6688607139154747</v>
+        <v>1.721608003880764</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.99764635796736</v>
+        <v>25.83008781287852</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.68364917325719</v>
+        <v>33.38107028141967</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.524760063603328</v>
+        <v>5.228022744257313</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.87848566286608</v>
+        <v>45.702937039451</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1.928604161648138</v>
+        <v>3.183673257425159</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.597441680429498</v>
+        <v>11.47554358557611</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21.61853326662678</v>
+        <v>22.59656072457942</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.03876402504122822</v>
+        <v>1.35797056380169</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.13009336127276</v>
+        <v>21.72690269565586</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.34212823233998</v>
+        <v>28.53341619205683</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.6930052026209985</v>
+        <v>1.880083702708575</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.71053263806114</v>
+        <v>31.79301345331328</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.20259638589261</v>
+        <v>40.41918789412004</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.36384702382645</v>
+        <v>33.1453228210592</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.14733804229203</v>
+        <v>36.90579576352077</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.11893786793192</v>
+        <v>44.19508547691413</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.992802460020663</v>
+        <v>3.525411314688526</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.62076863121317</v>
+        <v>23.16983421044254</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.54308825130273</v>
+        <v>37.52517729740661</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.570833654912164</v>
+        <v>7.265978333880632</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.83515694456431</v>
+        <v>25.86047544090625</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.73197511249305</v>
+        <v>31.72288993713242</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.3544750544195878</v>
+        <v>1.661284496794767</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.54937205659557</v>
+        <v>22.69157087975412</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.54742374927946</v>
+        <v>31.8015238435645</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.249248751800614</v>
+        <v>2.337256370699826</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.55459570153249</v>
+        <v>35.95132477409373</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.28343033554087</v>
+        <v>29.10043416997305</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.20294652824182</v>
+        <v>22.20578956625984</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.05990582047534</v>
+        <v>38.38543536012467</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.07985870641059</v>
+        <v>38.59304234428839</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.134680577915876</v>
+        <v>8.534736092041534</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.22137300597191</v>
+        <v>20.51657464601044</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.46223346424294</v>
+        <v>28.18557558304453</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.82748671356631</v>
+        <v>13.34068705224248</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.95175265734208</v>
+        <v>27.2446232723997</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.09095914062362</v>
+        <v>37.43300773386905</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.3994702755171211</v>
+        <v>0.8119033538091536</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.949053884129768</v>
+        <v>8.927473524650846</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16.62161643394678</v>
+        <v>17.0888281604506</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.659048201038097</v>
+        <v>2.710940872612024</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.71235112439694</v>
+        <v>24.9038564072454</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.42336060123689</v>
+        <v>46.37356140713635</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.58941962633856</v>
+        <v>26.39449910090051</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.36812810607407</v>
+        <v>45.53093785035425</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>51.91132631964848</v>
+        <v>50.81191625815573</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.577370872135923</v>
+        <v>7.288808425044234</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.53750517286237</v>
+        <v>22.78418504368247</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.83253631997937</v>
+        <v>35.45724748423977</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.78726297205201</v>
+        <v>54.92623806865917</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.20225463194726</v>
+        <v>50.21323895529024</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.85339311635038</v>
+        <v>57.11244013104292</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>58.17889238973798</v>
+        <v>57.52694465720353</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.77712254164786</v>
+        <v>17.6799085312264</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.10263904158536</v>
+        <v>54.03272348475257</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>57.81540170367266</v>
+        <v>56.98861650045184</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.80853579861556</v>
+        <v>22.26098840631517</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.50010241683665</v>
+        <v>37.66458267444417</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.36002977564705</v>
+        <v>44.63877372383542</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1.791890476001207</v>
+        <v>2.940928946327634</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.94873073151926</v>
+        <v>42.80017285456497</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.28701900463083</v>
+        <v>45.96835226562784</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5.427087779224326</v>
+        <v>6.422391340466486</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.81875852343673</v>
+        <v>64.74163025171606</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.66218432565506</v>
+        <v>68.79167776174793</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.05404441435535</v>
+        <v>72.69640535378926</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>79.58456381687927</v>
+        <v>77.54334404432207</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>82.9209037524659</v>
+        <v>80.99455607102981</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.13818054847736</v>
+        <v>27.54716863827889</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.21090061542355</v>
+        <v>73.48354837956711</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>77.79688384404689</v>
+        <v>75.5018406306269</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.33023614659815</v>
+        <v>57.16934486977667</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>46.85263134622839</v>
+        <v>45.62563568250826</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.81821437816592</v>
+        <v>50.90182400932891</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.08193041834081</v>
+        <v>58.20688210180415</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.92691434966976</v>
+        <v>11.06196833965252</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.70916391651517</v>
+        <v>49.76635310916765</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.53858340307901</v>
+        <v>54.55305855609752</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.38874394696253</v>
+        <v>14.00602766047636</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.7332727981894</v>
+        <v>34.89327441211368</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.37216918204781</v>
+        <v>43.39450600850388</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.7621028140118504</v>
+        <v>2.303603230726562</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.91239931303583</v>
+        <v>39.59871267643745</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.66709987694384</v>
+        <v>43.44041709257679</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.380657651669491</v>
+        <v>7.517688659337143</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.80020305017531</v>
+        <v>63.3879185408296</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.31280720323871</v>
+        <v>71.20974534838109</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>73.34073927854158</v>
+        <v>71.15775231901284</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.29800261613197</v>
+        <v>77.08023799827315</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>86.18249456402735</v>
+        <v>84.01117535110043</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12.54205697496328</v>
+        <v>13.44502866711582</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.56612159632292</v>
+        <v>71.11137509706732</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.02932466186267</v>
+        <v>76.43417159365492</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>52.73519367396563</v>
+        <v>52.08027156400516</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.83102743836949</v>
+        <v>29.24936761601423</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.68435987035399</v>
+        <v>35.9563769450128</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.50118689415166</v>
+        <v>43.19127592167693</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.498418840481619</v>
+        <v>8.155118954187621</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.13968726421189</v>
+        <v>44.16364382601951</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.55546376211714</v>
+        <v>50.25251786359036</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.314255393524292</v>
+        <v>10.24926536563751</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.59740169372879</v>
+        <v>32.75959779427017</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.72166499159064</v>
+        <v>44.97953112716364</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.8343895316167576</v>
+        <v>2.016839634873715</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.00536272242086</v>
+        <v>35.22237295847395</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>45.74604828377618</v>
+        <v>44.92554778916053</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.801234176057367</v>
+        <v>2.839935323021727</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.03815329901643</v>
+        <v>56.14480619539535</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.25342184634911</v>
+        <v>70.0764918318506</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.45425696859095</v>
+        <v>61.2662429756309</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>76.52696204051468</v>
+        <v>73.81155127926351</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.03134752375686</v>
+        <v>82.53739268502943</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>7.952286111857799</v>
+        <v>8.851494693090896</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>69.70723860386745</v>
+        <v>67.01842164546633</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.60534111641432</v>
+        <v>75.43340261495138</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>17.26165514764603</v>
+        <v>18.40355723491069</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.28476975122421</v>
+        <v>20.59344604015864</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.01277643608172</v>
+        <v>25.81065951855877</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.485305793693222</v>
+        <v>11.18347708146079</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.91680378411888</v>
+        <v>19.38951462146534</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.52932938046371</v>
+        <v>19.78225637892363</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.11246817588743</v>
+        <v>15.04243638807042</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.81160761495734</v>
+        <v>28.90628614234548</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.61635856342759</v>
+        <v>30.22601952422638</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>18.30784699059848</v>
+        <v>20.08991044513478</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.13222939179663</v>
+        <v>23.55344119583834</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22.9220247673554</v>
+        <v>24.10471294797309</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.44900366360995</v>
+        <v>22.59998186114274</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.18485134987052</v>
+        <v>20.85575871436232</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.41722249873418</v>
+        <v>29.17809892342301</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.28960627486871</v>
+        <v>14.53632724000289</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.58672503992706</v>
+        <v>25.44582926029904</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.4882795183195</v>
+        <v>29.12109741694042</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.590422981449326</v>
+        <v>9.068090106644188</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.95431049680657</v>
+        <v>13.61032326168825</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.828552090596</v>
+        <v>16.07480171318061</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.88279282928017</v>
+        <v>10.67289565662039</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.5444945628377</v>
+        <v>21.95910125274958</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>18.74777426253043</v>
+        <v>20.24306117499382</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.63750888437025</v>
+        <v>25.58611323545304</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.17619989882936</v>
+        <v>27.0106995127724</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>9.142533990840221</v>
+        <v>10.9610142194457</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.76366130799093</v>
+        <v>26.82060561360015</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.44731117087317</v>
+        <v>28.26843998365635</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13.33810196003745</v>
+        <v>14.60492597725373</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.21075263091772</v>
+        <v>37.3843994352366</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.02479010510976</v>
+        <v>37.29404890023367</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.96542976730434</v>
+        <v>37.77915430526673</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.36741543481912</v>
+        <v>43.36523884943079</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.83934490651751</v>
+        <v>42.74927816730565</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.00945010983433</v>
+        <v>26.58437133083891</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.14192645124</v>
+        <v>39.17618249124307</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.16097750659689</v>
+        <v>39.79080969055852</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.0926727857673</v>
+        <v>19.02887787218954</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.51194344907494</v>
+        <v>30.21128549997768</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.08259248461413</v>
+        <v>33.7662786287012</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>7.507013131810577</v>
+        <v>9.866409311897144</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.61777778725946</v>
+        <v>27.85091662638217</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.72334201771792</v>
+        <v>32.89038625160048</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9.863562563306164</v>
+        <v>11.66937997891581</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.79615431441569</v>
+        <v>41.8830189690051</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.98132315798447</v>
+        <v>15.25070489160672</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.62518875148674</v>
+        <v>21.3775896098282</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.24381395861653</v>
+        <v>25.85249966331408</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.281067076791743</v>
+        <v>10.28798445694554</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.85279932714559</v>
+        <v>26.42926169174885</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.26800594315658</v>
+        <v>27.62837823199079</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12.64887005895535</v>
+        <v>14.3401970481121</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.79547376317693</v>
+        <v>36.64247625631749</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.59603454692292</v>
+        <v>40.00269218735627</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.63401336363185</v>
+        <v>38.79793683095463</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.5080927647385</v>
+        <v>42.63104026280342</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>44.98016996060772</v>
+        <v>45.2060009202323</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.96802706705975</v>
+        <v>17.73533207464875</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.87302642121204</v>
+        <v>32.59156057201052</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.59750088633692</v>
+        <v>35.67222229331246</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.92119601093701</v>
+        <v>14.14652177650274</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.95854843868634</v>
+        <v>27.26774153032964</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.54196017913122</v>
+        <v>33.10813466028076</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6.782159904903551</v>
+        <v>9.400405190501711</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.41803454603493</v>
+        <v>22.68411057347487</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.44304780519957</v>
+        <v>32.45985944549845</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>9.497593257084564</v>
+        <v>11.50695985764728</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.21459127887662</v>
+        <v>34.11164985113405</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>12.38430620383454</v>
+        <v>13.61171670640844</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.88175863305895</v>
+        <v>17.82296936620779</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.10190398354268</v>
+        <v>23.98871875760794</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>8.27428102936917</v>
+        <v>10.20501326460734</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.39409398586458</v>
+        <v>24.89942041156576</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.06501084439668</v>
+        <v>28.52151318599119</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9.956977495067932</v>
+        <v>11.50302952186915</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.32883849733116</v>
+        <v>32.63938188116752</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.66332204264917</v>
+        <v>38.29647676007738</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.76561251678513</v>
+        <v>32.44466758761587</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.59803841474208</v>
+        <v>36.03063816450923</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.34470505209261</v>
+        <v>39.25291312487337</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.1569052388923</v>
+        <v>15.5796203395431</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.34745472735633</v>
+        <v>27.55124778193039</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.69060110593189</v>
+        <v>35.32058696502651</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>10.01705935142882</v>
+        <v>12.38117099606992</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.564846776664</v>
+        <v>24.13049152698846</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.13294900319141</v>
+        <v>31.33894741940349</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.881117575740575</v>
+        <v>9.656765069905507</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.70044620053594</v>
+        <v>21.11370482709855</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.96596237549038</v>
+        <v>31.71152486307261</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>8.458320126010349</v>
+        <v>10.55095242704025</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.67819289783053</v>
+        <v>29.60255400234041</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.57657984797554</v>
+        <v>24.42556534319489</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.91410029481369</v>
+        <v>22.10052527200517</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.47270954498151</v>
+        <v>32.51470503919499</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.76578165278004</v>
+        <v>35.23765457292943</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.30829139291388</v>
+        <v>13.13904944919213</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.7075211459021</v>
+        <v>19.30118847938565</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.82516952809981</v>
+        <v>24.06888561519003</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.51325467270474</v>
+        <v>18.36042532592286</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.9367538157832</v>
+        <v>27.31328805471383</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.60160201842729</v>
+        <v>32.72515681794336</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6.249336767828932</v>
+        <v>8.944523525226948</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.90035030554936</v>
+        <v>13.50563211917117</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.11706166542702</v>
+        <v>17.48895471613577</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.344225300833749</v>
+        <v>11.09956635288119</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.35141820800201</v>
+        <v>23.67190100517374</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.90241567755685</v>
+        <v>34.28834662605515</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.87843282726644</v>
+        <v>24.86833557232651</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.17352441180706</v>
+        <v>35.88708423273798</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.02810627992673</v>
+        <v>38.53209040217024</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.18012407137203</v>
+        <v>13.99034664603429</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.41815165828266</v>
+        <v>22.09646529659642</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.0943719199102</v>
+        <v>28.39591038212814</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.89207712193751</v>
+        <v>47.74074524142762</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.43284195831959</v>
+        <v>42.91545241090206</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.98375760179883</v>
+        <v>50.54568886716501</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>52.82857448817638</v>
+        <v>51.03142924030568</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.65360635380458</v>
+        <v>20.03321130211817</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.88987458774678</v>
+        <v>48.18801551309988</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>52.52115660558896</v>
+        <v>50.69222510328015</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.72574129661663</v>
+        <v>25.29744914366084</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.30629319594456</v>
+        <v>36.03251376350573</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.81742805991547</v>
+        <v>40.79797982588876</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.032536059653189</v>
+        <v>11.28033597238207</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.34553034093621</v>
+        <v>35.24597981293726</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.42973078020513</v>
+        <v>39.80404200077344</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.6542599392978</v>
+        <v>16.36083516111853</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>55.64168193434234</v>
+        <v>54.27241992167193</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>59.22085448445554</v>
+        <v>56.99721620888088</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>61.70476348407752</v>
+        <v>59.88768077594301</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>66.1199823904268</v>
+        <v>63.47164531977474</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>69.15954996084338</v>
+        <v>66.28672115785309</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.58451192471338</v>
+        <v>32.04463086750855</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>64.05970288462258</v>
+        <v>61.39518261591712</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>66.94888437730613</v>
+        <v>63.78707537890346</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>50.31419211307118</v>
+        <v>48.97662575543517</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.72038481152969</v>
+        <v>34.4816088624233</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>41.21265180967946</v>
+        <v>41.18665045627721</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.63578706703373</v>
+        <v>51.16849559662379</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.80931510976578</v>
+        <v>14.83452171790445</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.86705503890323</v>
+        <v>42.35395201500282</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>50.51978306786683</v>
+        <v>48.69605124148683</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.74711334139091</v>
+        <v>19.079377224429</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.92036412453929</v>
+        <v>33.25632126895312</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.45519212727634</v>
+        <v>39.56436556315879</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>7.533393922463706</v>
+        <v>10.19433318615435</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.98336687725327</v>
+        <v>33.51252783973325</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.85823013469821</v>
+        <v>39.13526391421389</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.56771609868307</v>
+        <v>14.24370280411262</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>50.20815269701909</v>
+        <v>49.38846462818689</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>60.50807492843225</v>
+        <v>58.32294690693494</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>56.43660616887927</v>
+        <v>55.48388380750713</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>62.70505320331904</v>
+        <v>60.79735319151106</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>71.08356301277021</v>
+        <v>68.10914085895848</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>20.23446758012683</v>
+        <v>20.8337754173705</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>59.18598042952987</v>
+        <v>56.96581496582602</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>67.21607240687931</v>
+        <v>63.79959662506435</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.11104325137697</v>
+        <v>46.17984171322805</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.42946289408379</v>
+        <v>24.21003759905863</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.44413238701865</v>
+        <v>30.23783011002707</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.06191679202065</v>
+        <v>40.09613084425099</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.6238171894101</v>
+        <v>12.79057423727551</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.53600455551221</v>
+        <v>37.04436802097084</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.29838620532104</v>
+        <v>45.4066515342996</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.58995114656735</v>
+        <v>16.16883472520788</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.03702359098707</v>
+        <v>31.4312787768866</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.82357932568245</v>
+        <v>40.25987539013086</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>7.574268806430663</v>
+        <v>10.08681580156213</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.14995012237334</v>
+        <v>30.96471898013963</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.07989720254677</v>
+        <v>39.87489846799669</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.825148996951196</v>
+        <v>11.40486479326938</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.14045619240385</v>
+        <v>44.45270586959151</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.59670244969209</v>
+        <v>57.59239481090209</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>46.86701588641527</v>
+        <v>46.1905585215543</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>55.7299489823185</v>
+        <v>54.33263063591721</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.95870989912041</v>
+        <v>65.52864211079765</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.51474528754252</v>
+        <v>15.11233648600064</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.54612093487093</v>
+        <v>49.52844221858662</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.94906178709157</v>
+        <v>61.42165190163058</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.10769686727193</v>
+        <v>17.17751427834917</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.60705767086292</v>
+        <v>22.69183975823975</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.09697314408055</v>
+        <v>26.86536490708814</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>8.627415563580648</v>
+        <v>10.17065352626055</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.68498808514127</v>
+        <v>17.0377676917433</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15.42443599544606</v>
+        <v>18.16598661140883</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.75885126361183</v>
+        <v>13.09675797303371</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.02570889821362</v>
+        <v>28.34444012182493</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.50088888473716</v>
+        <v>31.04827193921305</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.42516252235018</v>
+        <v>22.89283284038383</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.14872462382069</v>
+        <v>27.14729773670887</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.46010191698792</v>
+        <v>28.5121655320102</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.72043147042038</v>
+        <v>16.44496441088732</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.62572175959829</v>
+        <v>20.62281176553698</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.35314530238622</v>
+        <v>26.16727603615658</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.72635289099321</v>
+        <v>15.17522332618663</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.96982510434026</v>
+        <v>25.36902269238011</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.30025191282862</v>
+        <v>28.6977466854101</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.181644812282453</v>
+        <v>8.228450892391731</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.98391557340222</v>
+        <v>13.08005925001892</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.2787158126007</v>
+        <v>16.07391453858008</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.374528284486278</v>
+        <v>9.874514194230265</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.753822787236</v>
+        <v>22.60660094459181</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.97601093387573</v>
+        <v>18.37967015361533</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.77764069205474</v>
+        <v>28.40626129164612</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.30353412650537</v>
+        <v>28.07399216569153</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.874686365385966</v>
+        <v>10.31483368300597</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.79933434064436</v>
+        <v>27.81112831632056</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.41154472531933</v>
+        <v>28.55685903906673</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.34616977240392</v>
+        <v>12.71052079529835</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.10380375278032</v>
+        <v>38.33119098210715</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.70103923909784</v>
+        <v>38.90404607095927</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.13769373230905</v>
+        <v>40.55405544073398</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.54265393285233</v>
+        <v>44.69259514614083</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.33141289849522</v>
+        <v>44.53820037053443</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.79374993005186</v>
+        <v>19.32045882115811</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.52402356484934</v>
+        <v>42.2696385546316</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.81083158203668</v>
+        <v>42.8389809526762</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.67056523348622</v>
+        <v>17.45852649438608</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.44885202061121</v>
+        <v>30.65435326642353</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.12879330993309</v>
+        <v>33.66312429641292</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.968708271260386</v>
+        <v>8.949183206296055</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.43207932132673</v>
+        <v>28.16294113045317</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.46342815720054</v>
+        <v>31.75257710600668</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.660359761318492</v>
+        <v>10.38343916390553</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.36648862475965</v>
+        <v>42.65041133196917</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.10668252448949</v>
+        <v>13.5438505888971</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.91902859418531</v>
+        <v>22.63504330941921</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.53956069124502</v>
+        <v>26.39787739410486</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.32191328323152</v>
+        <v>9.823322567126819</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.77287026614317</v>
+        <v>26.44725981473766</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.62796247218952</v>
+        <v>28.03398012325738</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.6557093298949</v>
+        <v>14.0849980804595</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.52476032323428</v>
+        <v>37.34014644149242</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.87894965468031</v>
+        <v>41.20144393772438</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.81146258563511</v>
+        <v>41.38088493538555</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.79115043598383</v>
+        <v>44.4525798738314</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>45.95921250661907</v>
+        <v>45.62741553364825</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>12.86748723806534</v>
+        <v>14.65325037503193</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.26905457546449</v>
+        <v>33.95084343430644</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.66402668119536</v>
+        <v>35.16657209218747</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.863791145593222</v>
+        <v>12.10682233047433</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.76468635378018</v>
+        <v>28.25646886982005</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.6321352727631</v>
+        <v>33.02276832700012</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.465878302658851</v>
+        <v>8.674737564049067</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.8851855167462</v>
+        <v>22.57839858049189</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.39991952583142</v>
+        <v>32.33543399512256</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>9.007250171395452</v>
+        <v>10.72565919336562</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.87224728059837</v>
+        <v>35.1835026795359</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>11.50379478967538</v>
+        <v>12.65480371970599</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.46889506580411</v>
+        <v>20.14435458605553</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.75932956268231</v>
+        <v>25.6155132851809</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.270665137536938</v>
+        <v>9.629088495293253</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.97844545855351</v>
+        <v>24.69108143060828</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.79172245833188</v>
+        <v>29.90360887572531</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.316555953088571</v>
+        <v>10.6225979948734</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.60905759398553</v>
+        <v>33.64086889476012</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.99969498636129</v>
+        <v>40.32263182048464</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.80710571505453</v>
+        <v>34.17598205025358</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.04505955183362</v>
+        <v>38.02473228761956</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>41.46021371201547</v>
+        <v>41.1286534847594</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.87895152861889</v>
+        <v>14.12464615358754</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.00474344717086</v>
+        <v>31.50578595370748</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.30711505426414</v>
+        <v>36.20819756404971</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9.062025097690658</v>
+        <v>11.16247307221324</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.96941570157791</v>
+        <v>24.0725990087315</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.40418412197887</v>
+        <v>31.33287307935052</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.475102899991384</v>
+        <v>8.869313090472687</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.26866120927466</v>
+        <v>20.29571429686376</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.17435112689618</v>
+        <v>31.47870135491787</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.894687637471815</v>
+        <v>9.745040484579135</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.25338581256737</v>
+        <v>28.82340830900513</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.2536532833227</v>
+        <v>25.36800772597605</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.97741693736407</v>
+        <v>22.58651879906351</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.86810044112865</v>
+        <v>33.54272746071862</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.60402675485446</v>
+        <v>34.97138591596212</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.907526967642067</v>
+        <v>11.58389487995057</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.29172698569688</v>
+        <v>19.48765946559166</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.11540360638823</v>
+        <v>24.78255053943302</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.61199923173924</v>
+        <v>16.64500906175309</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.11787627677585</v>
+        <v>27.31237429247651</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.84076838355365</v>
+        <v>32.93355445633404</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.000207024333605</v>
+        <v>8.195140685393831</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.40817889290738</v>
+        <v>12.67467823445782</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.03870814997441</v>
+        <v>17.05506511911825</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>8.367333309495997</v>
+        <v>9.975901712023362</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.00633464500994</v>
+        <v>22.4224316371832</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.22115651024532</v>
+        <v>34.67422418204816</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.6346085541448</v>
+        <v>24.47879774464119</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.61690697249791</v>
+        <v>36.96252619491913</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.27882983032175</v>
+        <v>41.03354790343644</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.903663189155917</v>
+        <v>11.84788608119931</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.61978604656746</v>
+        <v>21.45208009499445</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.77837066724512</v>
+        <v>29.12959783593758</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.57386606558082</v>
+        <v>48.29792352118065</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.23804763477038</v>
+        <v>44.52919017083936</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.78121502307456</v>
+        <v>51.13280156338367</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>51.60737201965742</v>
+        <v>50.17792794635225</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>14.23725455126461</v>
+        <v>16.11120642169074</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.0507218377854</v>
+        <v>48.17305063412728</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>53.11178808745501</v>
+        <v>51.24950519326857</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.33211691412224</v>
+        <v>22.69863576428398</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.27686779455124</v>
+        <v>36.72594037996545</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.97215276086719</v>
+        <v>40.30217288321086</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.33368227770055</v>
+        <v>10.21268737961414</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.78909069625039</v>
+        <v>36.47477926489113</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.37658969212204</v>
+        <v>39.1155501798572</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.24896798226097</v>
+        <v>14.24062777441814</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>55.93783823378988</v>
+        <v>54.71705261023094</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>58.379318130686</v>
+        <v>56.74743270907046</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>64.0001595189174</v>
+        <v>61.86908343573002</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>67.0967652626895</v>
+        <v>64.55410629355742</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.61390924588899</v>
+        <v>67.16328192067839</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.96859037426368</v>
+        <v>25.70693137630943</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.73248423172753</v>
+        <v>61.49707126754359</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>66.31169882179012</v>
+        <v>63.73033149124112</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>50.53398416877927</v>
+        <v>49.23767644849352</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.93100965794164</v>
+        <v>36.67812572065105</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.36165611246526</v>
+        <v>42.76709658023636</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>53.31099094452962</v>
+        <v>51.69378772102257</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>9.102282462182579</v>
+        <v>11.52791432360501</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>43.62424190897458</v>
+        <v>42.98279132752459</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>50.6494516821342</v>
+        <v>48.835087467821</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.52613474822423</v>
+        <v>16.37159109169984</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.40173759231388</v>
+        <v>33.43414354707385</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.5766098732089</v>
+        <v>38.9399221351029</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.879921491239106</v>
+        <v>9.23443275366289</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.34369433280577</v>
+        <v>32.2033953697354</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.46190545639881</v>
+        <v>38.93271309849447</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>11.53721343297719</v>
+        <v>13.13724056422793</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>48.70335154622299</v>
+        <v>48.46798725063792</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>59.59618817997585</v>
+        <v>58.05307413436149</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>57.10269875377477</v>
+        <v>56.2316906161883</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>63.50658878837216</v>
+        <v>61.77429717396954</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>71.19073288005308</v>
+        <v>68.85141375220228</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.76965739558173</v>
+        <v>16.66206318123975</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.78986537313536</v>
+        <v>56.22367060353561</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>65.74063372897604</v>
+        <v>63.16909690831748</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>47.9991560268094</v>
+        <v>46.77375064939478</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.41009819202873</v>
+        <v>24.60959833016653</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.07642890887386</v>
+        <v>31.22426377435122</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.95912017648268</v>
+        <v>40.62422134256555</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.816756267004195</v>
+        <v>10.93933064778037</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.25464600002064</v>
+        <v>38.15647068247163</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.49762228256418</v>
+        <v>46.13128545615761</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.13758066503998</v>
+        <v>13.99717554793559</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.65151458801641</v>
+        <v>30.38303012087033</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.98482289280041</v>
+        <v>39.62682858914624</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.033693453850304</v>
+        <v>9.126043827261793</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.76824171444883</v>
+        <v>28.20762762968045</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.31391340236542</v>
+        <v>39.9236294043715</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.061350639343058</v>
+        <v>10.44621875878311</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.11858293256957</v>
+        <v>40.77967862865498</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>59.2174795436181</v>
+        <v>57.46447426944177</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.17486313613219</v>
+        <v>43.60038866895568</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.29574632208903</v>
+        <v>54.377791613539</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.86468297165951</v>
+        <v>66.63118054407335</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.02450949358943</v>
+        <v>12.85013673258981</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>48.43721691401164</v>
+        <v>48.15474577546384</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>62.86906195457136</v>
+        <v>60.98431969055322</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.43617317051552</v>
+        <v>10.95002870088459</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.47661380248373</v>
+        <v>17.20298193793476</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.81731268410251</v>
+        <v>27.35639181057731</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.479904021980172</v>
+        <v>2.223233427510014</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>12.75170421921702</v>
+        <v>13.60552728606475</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.06023885112882</v>
+        <v>15.89968475270846</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.247833942653823</v>
+        <v>5.048458517012143</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.49539615721294</v>
+        <v>30.33070436407719</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.94389263746086</v>
+        <v>34.93217411738647</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.97806729226053</v>
+        <v>19.70452949849911</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.97101773858305</v>
+        <v>25.04533389713886</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.72443943895046</v>
+        <v>25.7090976918813</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.70118315119382</v>
+        <v>11.27980618515183</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.98829367747204</v>
+        <v>16.56154775992692</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.23397848019324</v>
+        <v>27.88602008585188</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.76605303442917</v>
+        <v>11.09736678169565</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.09658709497926</v>
+        <v>25.01232657920738</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.21389257373711</v>
+        <v>28.58478072374701</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.6777977465257408</v>
+        <v>1.352404826099917</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.161105227446871</v>
+        <v>9.668128864436078</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.52995209988515</v>
+        <v>14.05806064266613</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.607006498230284</v>
+        <v>3.092678409869503</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.51799502082521</v>
+        <v>23.22788429139321</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.60473724109722</v>
+        <v>16.25025321356939</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.00226501273828</v>
+        <v>30.6543179018076</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.80386076227078</v>
+        <v>31.13494855292081</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.239372824570381</v>
+        <v>2.850463130884879</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.17324152348105</v>
+        <v>33.33302017955767</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.63247818313401</v>
+        <v>33.04316726819583</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.790088353221424</v>
+        <v>5.509504325078403</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.77993886482771</v>
+        <v>48.5586598999861</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>49.93898868750803</v>
+        <v>48.46283685918731</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>50.09965190514302</v>
+        <v>48.55398878951048</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>57.16881876438161</v>
+        <v>55.0205984244245</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>55.4728787773393</v>
+        <v>53.82448778246992</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.65591137852149</v>
+        <v>17.3400998612502</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>50.29917998209228</v>
+        <v>48.91724425753014</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>51.83924145389926</v>
+        <v>51.9060651966883</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.36864566395098</v>
+        <v>16.62133203067751</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.70456832211705</v>
+        <v>33.46484731326723</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.24523376214333</v>
+        <v>35.13646887782112</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.283227486970954</v>
+        <v>2.051826287127053</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.90728393132435</v>
+        <v>31.50879285739515</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.10773760486572</v>
+        <v>33.44996588360736</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>2.258400345667432</v>
+        <v>3.378076502106833</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>51.09335493580632</v>
+        <v>50.55973046622269</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.555388161852569</v>
+        <v>6.004840304905443</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.81108796008959</v>
+        <v>21.64898273804468</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.54896541539792</v>
+        <v>28.12468735785867</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.622472779688955</v>
+        <v>2.184004727011128</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.0479861355297</v>
+        <v>30.6071511567578</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.29223658171213</v>
+        <v>32.80864708551195</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.678823425089352</v>
+        <v>7.522830416265666</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.81014794133875</v>
+        <v>47.64186859352691</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.20484820968962</v>
+        <v>51.74855101005866</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>54.93163429531553</v>
+        <v>53.39299168610297</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>59.0792279763498</v>
+        <v>57.90336143355973</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.2848569400203</v>
+        <v>58.9062384959729</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.497309489565076</v>
+        <v>7.304732820818256</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.95902940260947</v>
+        <v>36.69544484596897</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>41.34021152722589</v>
+        <v>40.14236915692222</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.759497691362579</v>
+        <v>9.204726536956716</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.51951910660841</v>
+        <v>31.97649114823594</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.33780773051074</v>
+        <v>34.88075019574083</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.759858707953921</v>
+        <v>2.415984909576704</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.2968328952274</v>
+        <v>26.79800781124545</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.54723353891021</v>
+        <v>35.32285510978159</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.702219671615246</v>
+        <v>5.219861443938949</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.63751527281714</v>
+        <v>46.4466214754005</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.216427040406277</v>
+        <v>4.432677198379572</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.40631784466721</v>
+        <v>16.87541364143673</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.17727038507046</v>
+        <v>26.05408981204816</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.459070504342492</v>
+        <v>2.132144667570593</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.35841521113083</v>
+        <v>26.57910336855087</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.19205224159585</v>
+        <v>35.51611689013553</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.109403192283359</v>
+        <v>2.798118507751443</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.53614236001048</v>
+        <v>41.16410242443897</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>51.1058156413424</v>
+        <v>49.94766736319899</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.46064916480557</v>
+        <v>43.03145942484006</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.30673163726579</v>
+        <v>49.1302170371943</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.15332638850633</v>
+        <v>53.31062475270767</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.092958129310215</v>
+        <v>6.171544214271414</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.45542983673704</v>
+        <v>30.54647934074889</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.76056544262327</v>
+        <v>40.9138083466407</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.918807454557328</v>
+        <v>6.544310887656799</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.97022481181856</v>
+        <v>25.85758907697048</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.55918801305423</v>
+        <v>32.54158979100139</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.003576381310712</v>
+        <v>2.107827237093044</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.79163849679838</v>
+        <v>21.96750514120348</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.75106725353704</v>
+        <v>33.85255953555902</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1.521563144640183</v>
+        <v>2.485307096863945</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.56256244439469</v>
+        <v>35.29202112993509</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.46962661291247</v>
+        <v>28.48559959154754</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.93151095781121</v>
+        <v>21.7994776332186</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.54414407409253</v>
+        <v>37.32078213251881</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.86278144030242</v>
+        <v>38.79983692041696</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.405682901265866</v>
+        <v>6.835583163384989</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.7651114885742</v>
+        <v>19.84161548991748</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.759986326529</v>
+        <v>27.45524045420719</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.62150179261601</v>
+        <v>11.7980173771932</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.7638671261953</v>
+        <v>25.88673317902446</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.63535350023978</v>
+        <v>35.32081051866513</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.5999312952238469</v>
+        <v>1.32149695859184</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.339117702632731</v>
+        <v>8.065636631771021</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.65194203289356</v>
+        <v>13.53245950230627</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>1.92228610673881</v>
+        <v>2.589079081285735</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.00352885410182</v>
+        <v>20.5811424943491</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.53175506283703</v>
+        <v>39.51157108185587</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.94326656837935</v>
+        <v>24.03180847013385</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.33375892725512</v>
+        <v>43.84404942657763</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.25362391889435</v>
+        <v>49.55294830244347</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>5.042028911485524</v>
+        <v>5.773985950329934</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.93341798830473</v>
+        <v>19.50064619524817</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.18682377021738</v>
+        <v>32.07749435717474</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>55.93811919964242</v>
+        <v>55.59517094733182</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.87126204779632</v>
+        <v>54.40926279342101</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.42522341268723</v>
+        <v>60.65301103747535</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>59.77753481507932</v>
+        <v>59.5314915440205</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.72034154683422</v>
+        <v>15.3458069185165</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.9228899482783</v>
+        <v>57.07329900327502</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>60.00464502486715</v>
+        <v>59.57472436009523</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.16054746521427</v>
+        <v>20.25157215105549</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.88198012916315</v>
+        <v>38.82378728635786</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.49216993204578</v>
+        <v>44.18447774958157</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>2.603360209350488</v>
+        <v>3.454233708542215</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.46758814456538</v>
+        <v>42.58591453678877</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.8606298056164</v>
+        <v>43.62294977153103</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>5.057894610078517</v>
+        <v>5.980458370896979</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.44872140097148</v>
+        <v>64.45444188579145</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>68.86591334319699</v>
+        <v>68.06341719038598</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.83847252349638</v>
+        <v>74.24038042983304</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>79.63786406320749</v>
+        <v>78.31414115485742</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82.43916821298451</v>
+        <v>81.47913894513599</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.70294160818161</v>
+        <v>22.6417076002697</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>74.1704918978176</v>
+        <v>73.34168367935084</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>77.42748139515996</v>
+        <v>76.2632608098944</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>59.76825089369761</v>
+        <v>59.09231478787156</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.36274543799843</v>
+        <v>47.19181317018799</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.44612947454695</v>
+        <v>53.27853146216508</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.18301263907311</v>
+        <v>61.49325794119923</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.307020935670035</v>
+        <v>8.905780466295386</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>53.20279821258057</v>
+        <v>52.28397802080249</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.76680243644344</v>
+        <v>57.00904751673934</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.85014641149848</v>
+        <v>11.88056311833155</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.34540842974182</v>
+        <v>35.28912438650236</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.37754018532632</v>
+        <v>42.90387309652976</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1.72262540558846</v>
+        <v>2.661233833640896</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.4286061696175</v>
+        <v>36.13345504519324</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.85730136550233</v>
+        <v>43.34427613227042</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>6.25849171472295</v>
+        <v>7.134590694478788</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.6681978769862</v>
+        <v>58.88091042182456</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>72.11176032040034</v>
+        <v>71.04879862383027</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>71.78995740788294</v>
+        <v>70.32594938444777</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>77.36766687952856</v>
+        <v>76.09661078885446</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>85.88000180694999</v>
+        <v>84.78814962274075</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.883270351493241</v>
+        <v>11.54698575572959</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>68.20575686072377</v>
+        <v>66.92484450467438</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>78.13363845502124</v>
+        <v>76.41242800979046</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>54.83909207764756</v>
+        <v>54.24489916986463</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.81266732983051</v>
+        <v>27.60873213829808</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.66535736063561</v>
+        <v>36.04236109608348</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.93739297487416</v>
+        <v>46.4042040695216</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.068614917470189</v>
+        <v>6.789641663073624</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>47.32881145656857</v>
+        <v>46.48376121429175</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.83708839460092</v>
+        <v>53.29140186744306</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>7.191723097848563</v>
+        <v>8.423751034412188</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.7623700032612</v>
+        <v>30.7316663078195</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.77322239136976</v>
+        <v>43.672135578374</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1.289023268806378</v>
+        <v>2.17983107234155</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.17151131562869</v>
+        <v>29.720522726547</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.49071527915857</v>
+        <v>45.10568328291457</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1.729727839485658</v>
+        <v>2.468983793106503</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.67613873910412</v>
+        <v>46.25384058375487</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>70.02389725897993</v>
+        <v>69.06566052347856</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.71126007019937</v>
+        <v>51.15419966032044</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>66.02439999581632</v>
+        <v>65.53717319708927</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>83.95692115979851</v>
+        <v>82.59854351662207</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>5.895249630340107</v>
+        <v>7.078454112470695</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>55.55480864289234</v>
+        <v>55.80895134069667</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>73.60559599508269</v>
+        <v>72.91056609739381</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.25190714284634</v>
+        <v>17.44450224464936</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.94761710911613</v>
+        <v>19.16290487119335</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.75796319169204</v>
+        <v>27.58380989022382</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.235628756612574</v>
+        <v>9.157858813363219</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.83502978503935</v>
+        <v>20.86198216620498</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.28143411991505</v>
+        <v>22.39764633535746</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.47977582144723</v>
+        <v>12.95214678968373</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.00014657692103</v>
+        <v>33.49923281046854</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.57358184792039</v>
+        <v>35.64364393267212</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.58283534806539</v>
+        <v>19.76623836870176</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.42000643824716</v>
+        <v>23.19430578788426</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.1859745158985</v>
+        <v>23.53862048613981</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.82421813093611</v>
+        <v>22.67961310686552</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.52917022730544</v>
+        <v>20.40196575319932</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.25328974470271</v>
+        <v>32.22353503328492</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>13.35231518509238</v>
+        <v>14.40000109150094</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.11683232255172</v>
+        <v>25.44750820530602</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.06485965201626</v>
+        <v>30.35515793216859</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>9.211298392878284</v>
+        <v>9.618704406744406</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>14.92905172919098</v>
+        <v>15.26226812208809</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.29235349156537</v>
+        <v>17.94161439191717</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>7.611994170050551</v>
+        <v>8.690632468407493</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.60820882821239</v>
+        <v>22.06196299388908</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.15346129195283</v>
+        <v>21.45283662327041</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.69576350513853</v>
+        <v>28.03461550614824</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.83583602763637</v>
+        <v>29.73529035028125</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>7.920562210259767</v>
+        <v>9.014300734660381</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.37051113945013</v>
+        <v>31.71639991743478</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.46594611970543</v>
+        <v>32.54270191508451</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>11.80679280168203</v>
+        <v>12.54236583664805</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>44.27384893087336</v>
+        <v>43.03525292318093</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.85987005218284</v>
+        <v>42.61183966496146</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.7030121533102</v>
+        <v>42.66739776669827</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>49.7672742714982</v>
+        <v>48.23743794376881</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.07144600476971</v>
+        <v>47.74068642261854</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.54560040872814</v>
+        <v>28.70055327818715</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.2905977898438</v>
+        <v>41.70677461659254</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.44147847758896</v>
+        <v>44.59035283335802</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.72607085414599</v>
+        <v>20.16790937655968</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.26744238166888</v>
+        <v>31.32612643284665</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.47185674844495</v>
+        <v>34.42367252222154</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>9.908112365518182</v>
+        <v>10.31644052436409</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.80976913440505</v>
+        <v>30.5027306924517</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.04250272993291</v>
+        <v>34.8252480631665</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.460464805430178</v>
+        <v>9.727377076717271</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.1161103419557</v>
+        <v>44.32352495620538</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.1526100140556</v>
+        <v>13.57086359074003</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.44324521390159</v>
+        <v>22.92047296916715</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.27230949917933</v>
+        <v>28.34406953492276</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>6.962793442593544</v>
+        <v>8.164463721204452</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.89400960674398</v>
+        <v>30.84640169961467</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.88990471835421</v>
+        <v>32.68229684549869</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.61170524461614</v>
+        <v>12.60875573846271</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>43.88197162218391</v>
+        <v>43.31661531294377</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>47.5653003027714</v>
+        <v>46.7570857422571</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.16502434897031</v>
+        <v>46.382589016915</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>51.29626677993492</v>
+        <v>50.17956067349368</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.93912130145552</v>
+        <v>52.61737937104206</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.79840882091793</v>
+        <v>17.27349015205838</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.70003221198128</v>
+        <v>35.38706785951552</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>40.95154514540574</v>
+        <v>40.02713405664859</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.14825989206174</v>
+        <v>14.81941378579283</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.10398435102297</v>
+        <v>29.51944552771447</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.92478426867591</v>
+        <v>33.84956825448381</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>9.689414815546606</v>
+        <v>10.18732269587091</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.14233394441169</v>
+        <v>26.19916862197181</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.49919045561651</v>
+        <v>35.19462545212422</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>9.114253039293331</v>
+        <v>10.17748190655503</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>39.76739884703155</v>
+        <v>39.50155572200219</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>10.09780557195933</v>
+        <v>11.23289998058308</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.03044334795317</v>
+        <v>18.26905888682565</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.43064600397521</v>
+        <v>25.92880900414251</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.040571219221313</v>
+        <v>8.27330111594533</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.64601357867448</v>
+        <v>29.51092689555209</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.26340771123544</v>
+        <v>33.94528933980936</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.967297418956569</v>
+        <v>9.103655743333036</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.71230680444059</v>
+        <v>39.39894514330426</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.56901928439534</v>
+        <v>44.74456871667845</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.92839187705856</v>
+        <v>39.39662643134717</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.28244978095206</v>
+        <v>43.15937906842433</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.8608365039813</v>
+        <v>46.79344129239422</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>14.27159421695998</v>
+        <v>14.79033432775077</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.29244486423628</v>
+        <v>28.70450773648302</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.05098239429333</v>
+        <v>40.38946973105614</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>10.94360411936638</v>
+        <v>12.06339865638017</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.27961939630542</v>
+        <v>25.76253418752048</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.04307332723727</v>
+        <v>32.26461141634164</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.631605974159534</v>
+        <v>10.31155452205597</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.51173926024904</v>
+        <v>24.67501398321081</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.87895373389374</v>
+        <v>34.90240601132032</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.945009126080564</v>
+        <v>8.325494731564273</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.86316211657558</v>
+        <v>34.00463985892038</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.66191602684007</v>
+        <v>24.92097528330154</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.34140807641763</v>
+        <v>21.90427482068056</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.56997793107001</v>
+        <v>33.90167020123727</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.42295620952225</v>
+        <v>36.57973866298642</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.08482369392441</v>
+        <v>11.96658911983332</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.35108533447317</v>
+        <v>19.21223418183273</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.00443531664167</v>
+        <v>24.6784145705902</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.31290601914962</v>
+        <v>16.6791644117204</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.5539048386691</v>
+        <v>25.94626311961175</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.29837846665434</v>
+        <v>33.18018235428639</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.077318577128167</v>
+        <v>9.620335950560477</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>14.33169092752269</v>
+        <v>14.68427774628869</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.08133737862208</v>
+        <v>18.96278153762536</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.92572251604587</v>
+        <v>9.002075210461204</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.87240409425885</v>
+        <v>23.20643820129859</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.36095560773988</v>
+        <v>37.13218042688035</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.04461117268833</v>
+        <v>24.47706516636473</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>39.02922900480547</v>
+        <v>38.83771889830345</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.48250410398627</v>
+        <v>42.53111389415652</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.98399289279175</v>
+        <v>11.90143652342783</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.29331396320152</v>
+        <v>21.58763608766372</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.65717373374656</v>
+        <v>30.17693967949858</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.50478526346533</v>
+        <v>50.12743414199224</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.5150741794929</v>
+        <v>46.2890389022668</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>54.62997460593473</v>
+        <v>53.86687742467042</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>54.79051017650322</v>
+        <v>54.24490583825741</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.44537043412983</v>
+        <v>21.58573496757889</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.14550614454103</v>
+        <v>50.62161304003703</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>53.91940185704225</v>
+        <v>53.25932723558505</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.33164136022171</v>
+        <v>25.57537143931073</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.39380758915992</v>
+        <v>36.47940802521925</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.9611142320262</v>
+        <v>41.50637926249323</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>11.10848108403129</v>
+        <v>11.6435884052701</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>39.66552255207246</v>
+        <v>38.54252424873585</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.52695997759889</v>
+        <v>41.72687751180376</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>12.30601019839324</v>
+        <v>13.15549064316909</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.72342272648952</v>
+        <v>56.50807365832333</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>61.6120838262021</v>
+        <v>60.33404534584906</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>65.80215356431863</v>
+        <v>64.42074107140103</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>69.98068094526809</v>
+        <v>68.33991128478544</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>73.11547878510221</v>
+        <v>71.42274750171771</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.36571018106635</v>
+        <v>31.7165193390475</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>66.1305450328429</v>
+        <v>64.67370784571084</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>69.05584030966931</v>
+        <v>67.37684553935335</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.26699411779445</v>
+        <v>52.67892329919245</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.77078727689018</v>
+        <v>39.26589295191432</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.6377674645164</v>
+        <v>45.20773993892074</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>54.73848767665527</v>
+        <v>54.27108794444865</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.51843858216413</v>
+        <v>15.92714859851188</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.73310811920724</v>
+        <v>46.12661021799902</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.09480931237296</v>
+        <v>51.34375182328893</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.32986657096797</v>
+        <v>18.77705387879951</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.84891879887645</v>
+        <v>34.0214316127156</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.0570394606459</v>
+        <v>40.59483702841184</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.17051713010175</v>
+        <v>10.74917840647096</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.75579112438949</v>
+        <v>36.03291288365563</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.35840625471773</v>
+        <v>41.48748045418824</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.8453133254342</v>
+        <v>12.78144313214662</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>54.38287831876186</v>
+        <v>53.40077033267494</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>64.39077404904684</v>
+        <v>62.87068135571174</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>62.85257660517146</v>
+        <v>61.15058498360372</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>67.44625915426934</v>
+        <v>65.86355171399791</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>75.77938237473586</v>
+        <v>73.78585736538875</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>20.69210163041394</v>
+        <v>20.59516280133451</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>61.60960803831041</v>
+        <v>59.84576152504798</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>69.81364554630406</v>
+        <v>67.46943101349356</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.36953588113287</v>
+        <v>48.9553894918791</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.21431060091784</v>
+        <v>25.97945653251428</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.63916855615287</v>
+        <v>31.9772524464466</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.63522549647101</v>
+        <v>41.67429918452946</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.77412689261641</v>
+        <v>12.7508521353811</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.53825397112257</v>
+        <v>41.36668867076426</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>49.04287955424169</v>
+        <v>48.53887009954654</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.49534112412816</v>
+        <v>15.35998823518742</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.77766532633241</v>
+        <v>32.07527733921842</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>41.85695987040912</v>
+        <v>41.63762753944172</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>10.28868498171624</v>
+        <v>10.80980926824541</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.01763836256078</v>
+        <v>33.4972897585311</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.95538635200045</v>
+        <v>43.22702955976864</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.671044971213931</v>
+        <v>8.807620496203914</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.09590960026316</v>
+        <v>47.14801827834675</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.02011971997787</v>
+        <v>61.69162186766096</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>50.73375341116974</v>
+        <v>50.05877714700848</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.82679851933324</v>
+        <v>58.33445479004358</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>73.40404987816967</v>
+        <v>71.57456574790226</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>13.72669752408549</v>
+        <v>14.59271455887139</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>52.94901862232837</v>
+        <v>52.08541371189321</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>67.36920958414962</v>
+        <v>65.62372220364261</v>
       </c>
     </row>
   </sheetData>
